--- a/data/trans_bre/P74B-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P74B-Dificultad-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>65.50911782035428</v>
+        <v>65.18012171137715</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>35.6404601970669</v>
+        <v>36.75648835461278</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>32.16046293760081</v>
+        <v>31.97036514413258</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>5.994110790809218</v>
+        <v>5.871313398928931</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>2.611599594750564</v>
+        <v>2.745876371950904</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>2.194679730956802</v>
+        <v>2.064018286939635</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>78.17536568345284</v>
+        <v>77.89753496676647</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>48.24593278384241</v>
+        <v>48.28881864345008</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>44.17408346967572</v>
+        <v>44.30199317455553</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>15.53650864757371</v>
+        <v>14.68511001848078</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5.942481608921435</v>
+        <v>5.822384134310707</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4.303974163926801</v>
+        <v>4.419536192417898</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>68.50922258268716</v>
+        <v>67.47257117820939</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>51.96304147616826</v>
+        <v>52.03047938770242</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>49.67802602236585</v>
+        <v>49.42647432297612</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>7.610886889985909</v>
+        <v>7.378106113190123</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>4.323995545242497</v>
+        <v>4.224027864255453</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>2.990424565983788</v>
+        <v>2.971170277420104</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>79.66564499999512</v>
+        <v>79.71506247288637</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>65.69040234874058</v>
+        <v>65.29599381651479</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>63.02741474492961</v>
+        <v>63.32516845121798</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>15.44793901373168</v>
+        <v>15.33051395395096</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>9.138360555951648</v>
+        <v>9.135581373081038</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.805550126416865</v>
+        <v>5.847872367158763</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>73.84839436517167</v>
+        <v>74.40692283394316</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>62.75504654765839</v>
+        <v>63.15404441116944</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>68.58204406114825</v>
+        <v>69.13052249147528</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>8.102618924512486</v>
+        <v>8.263580455522199</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>2.866981818177972</v>
+        <v>2.852557678444514</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>4.513585971925115</v>
+        <v>4.463804892704297</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>86.20290313615359</v>
+        <v>86.58750962108705</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>75.68544995604925</v>
+        <v>75.84028092298072</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>81.68871755254702</v>
+        <v>82.2713671293</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>17.17068127613109</v>
+        <v>18.03526117371015</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>5.287198980682319</v>
+        <v>5.266658584623259</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>9.585827650920562</v>
+        <v>9.451418619349967</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>69.85227828578792</v>
+        <v>68.26198735974846</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>55.39156098192002</v>
+        <v>55.76444817445408</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>60.0681152613719</v>
+        <v>60.71572870944038</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>4.929004060159886</v>
+        <v>4.88462586841841</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2.467180003960053</v>
+        <v>2.584476809304727</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>3.991436289707003</v>
+        <v>4.279343326155538</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>91.12021685891901</v>
+        <v>91.02681788250709</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>77.62851365350278</v>
+        <v>77.6534611992072</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>79.93609729591702</v>
+        <v>81.00129029129182</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>19.67737698310958</v>
+        <v>19.16428570861592</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8.225931415724212</v>
+        <v>8.40550461509144</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>12.1056973616756</v>
+        <v>11.97902693462496</v>
       </c>
     </row>
     <row r="16">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>72.04742228106824</v>
+        <v>72.06928837387241</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>51.74650728392985</v>
+        <v>51.66621408889991</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>49.84583350668716</v>
+        <v>49.67733354591125</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>8.523159900765066</v>
+        <v>8.544478503612234</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>3.6035565191579</v>
+        <v>3.602206376612576</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>3.523639203127654</v>
+        <v>3.546998983673341</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>78.62852438722376</v>
+        <v>78.94973794921249</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>59.15672420860575</v>
+        <v>59.25659835613972</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>57.00197369899335</v>
+        <v>56.97301679104121</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>12.9910402154123</v>
+        <v>12.99278080015238</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5.338129142869732</v>
+        <v>5.336893703838421</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5.198206829905917</v>
+        <v>5.212035322619844</v>
       </c>
     </row>
     <row r="19">
